--- a/Flowrate Data/Lowflow data.xlsx
+++ b/Flowrate Data/Lowflow data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslai/Desktop/LowCostAirPumpCode/Flowrate Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="792">
   <si>
     <t>'17:21:33'</t>
   </si>
@@ -2400,16 +2400,27 @@
   </si>
   <si>
     <t>'2016/11/3'</t>
+  </si>
+  <si>
+    <t>Percent error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2435,15 +2446,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2521,6 +2535,21 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$B$90</c:f>
@@ -3089,11 +3118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="495440816"/>
-        <c:axId val="495443136"/>
+        <c:axId val="13392880"/>
+        <c:axId val="83045824"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="495440816"/>
+      <c:dateAx>
+        <c:axId val="13392880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,17 +3165,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495443136"/>
+        <c:crossAx val="83045824"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="495443136"/>
+        <c:axId val="83045824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3194,7 +3223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495440816"/>
+        <c:crossAx val="13392880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3258,7 +3287,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3887,11 +3915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="498847552"/>
-        <c:axId val="530153200"/>
+        <c:axId val="80100528"/>
+        <c:axId val="80222224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498847552"/>
+        <c:axId val="80100528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +3962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530153200"/>
+        <c:crossAx val="80222224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3942,7 +3970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="530153200"/>
+        <c:axId val="80222224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +4020,548 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498847552"/>
+        <c:crossAx val="80100528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>0.2 LPM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Flow Consistency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="90"/>
+                <c:pt idx="0">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.18000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="82076272"/>
+        <c:axId val="124100976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82076272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124100976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124100976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82076272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4675,11 +5244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="502787680"/>
-        <c:axId val="502273840"/>
+        <c:axId val="83754176"/>
+        <c:axId val="79420528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="502787680"/>
+        <c:axId val="83754176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +5291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502273840"/>
+        <c:crossAx val="79420528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4730,7 +5299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="502273840"/>
+        <c:axId val="79420528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4780,7 +5349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502787680"/>
+        <c:crossAx val="83754176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5409,11 +5978,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="498027824"/>
-        <c:axId val="500543856"/>
+        <c:axId val="82950656"/>
+        <c:axId val="82007168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498027824"/>
+        <c:axId val="82950656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5456,7 +6025,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500543856"/>
+        <c:crossAx val="82007168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5464,7 +6033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="500543856"/>
+        <c:axId val="82007168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5484,6 +6053,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5514,7 +6084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498027824"/>
+        <c:crossAx val="82950656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6197,11 +6767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="528729056"/>
-        <c:axId val="455335648"/>
+        <c:axId val="13819344"/>
+        <c:axId val="120900080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528729056"/>
+        <c:axId val="13819344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6244,7 +6814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455335648"/>
+        <c:crossAx val="120900080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6252,7 +6822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455335648"/>
+        <c:axId val="120900080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6272,6 +6842,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6302,7 +6873,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528729056"/>
+        <c:crossAx val="13819344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6799,11 +7370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="496754224"/>
-        <c:axId val="461208640"/>
+        <c:axId val="79866912"/>
+        <c:axId val="79860816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="496754224"/>
+        <c:axId val="79866912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6846,7 +7417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461208640"/>
+        <c:crossAx val="79860816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6854,7 +7425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461208640"/>
+        <c:axId val="79860816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,6 +7445,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6904,7 +7476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496754224"/>
+        <c:crossAx val="79866912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7233,11 +7805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="498321440"/>
-        <c:axId val="529514096"/>
+        <c:axId val="79803568"/>
+        <c:axId val="79805616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="498321440"/>
+        <c:axId val="79803568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7280,7 +7852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529514096"/>
+        <c:crossAx val="79805616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7288,7 +7860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529514096"/>
+        <c:axId val="79805616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7338,7 +7910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498321440"/>
+        <c:crossAx val="79803568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7973,11 +8545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="461347056"/>
-        <c:axId val="501145792"/>
+        <c:axId val="80062448"/>
+        <c:axId val="80055088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="461347056"/>
+        <c:axId val="80062448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8020,7 +8592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501145792"/>
+        <c:crossAx val="80055088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8028,7 +8600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501145792"/>
+        <c:axId val="80055088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8078,7 +8650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461347056"/>
+        <c:crossAx val="80062448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8809,11 +9381,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="528651840"/>
-        <c:axId val="532308944"/>
+        <c:axId val="15466768"/>
+        <c:axId val="15395136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="528651840"/>
+        <c:axId val="15466768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8856,7 +9428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532308944"/>
+        <c:crossAx val="15395136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8864,7 +9436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="532308944"/>
+        <c:axId val="15395136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8914,7 +9486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528651840"/>
+        <c:crossAx val="15466768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8978,7 +9550,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9597,11 +10168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="453455344"/>
-        <c:axId val="499577056"/>
+        <c:axId val="79967296"/>
+        <c:axId val="79931648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="453455344"/>
+        <c:axId val="79967296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9644,7 +10215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499577056"/>
+        <c:crossAx val="79931648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9652,7 +10223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="499577056"/>
+        <c:axId val="79931648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9702,7 +10273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453455344"/>
+        <c:crossAx val="79967296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9792,6 +10363,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11183,6 +11794,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -15613,6 +16740,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>185144</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>625819</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63347</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15879,10 +17036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C802"/>
+  <dimension ref="A1:E802"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A57" zoomScale="117" workbookViewId="0">
-      <selection activeCell="W170" sqref="W170"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="169" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16770,7 +17927,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>786</v>
       </c>
@@ -16781,7 +17938,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>786</v>
       </c>
@@ -16792,7 +17949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>786</v>
       </c>
@@ -16803,7 +17960,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>786</v>
       </c>
@@ -16814,7 +17971,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>786</v>
       </c>
@@ -16825,7 +17982,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>786</v>
       </c>
@@ -16836,7 +17993,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>786</v>
       </c>
@@ -16847,7 +18004,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>786</v>
       </c>
@@ -16858,7 +18015,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>786</v>
       </c>
@@ -16868,8 +18025,11 @@
       <c r="C89" s="1">
         <v>0.18000000999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>786</v>
       </c>
@@ -16879,8 +18039,16 @@
       <c r="C90" s="1">
         <v>0.18000000999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="1">
+        <f>AVERAGE(C1:C90)</f>
+        <v>0.17933333822222225</v>
+      </c>
+      <c r="E90" s="2">
+        <f>(D90-0.18)/0.18</f>
+        <v>-3.7036765432096885E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>787</v>
       </c>
@@ -16891,7 +18059,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>787</v>
       </c>
@@ -16902,7 +18070,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>787</v>
       </c>
@@ -16913,7 +18081,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>787</v>
       </c>
@@ -16924,7 +18092,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>787</v>
       </c>
@@ -16935,7 +18103,7 @@
         <v>0.18000000999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>787</v>
       </c>
